--- a/cases/WebCases2.xlsx
+++ b/cases/WebCases2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="3795" windowWidth="14175"/>
+    <workbookView windowWidth="9060" windowHeight="3045"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:K29"/>
@@ -204,7 +204,7 @@
     <t>搜索商品</t>
   </si>
   <si>
-    <t>//input[@id='qqq']</t>
+    <t>//input[@id='q']</t>
   </si>
   <si>
     <t>//button[@type='submit']</t>
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -241,10 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,9 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,11 +300,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,28 +363,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -354,16 +370,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,14 +384,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,49 +394,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,19 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,85 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,17 +646,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,256 +694,238 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="18" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="16" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -939,10 +939,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1100,7 +1100,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1109,13 +1109,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1125,7 +1125,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1134,7 +1134,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1143,7 +1143,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1153,12 +1153,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1189,7 +1189,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1208,7 +1208,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1219,21 +1219,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="58.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="11.25" collapsed="true"/>
+    <col min="1" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="58.5" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1877,18 +1877,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://testingedu.com.cn:8000/Admin/Admin/login" r:id="rId1" ref="E3"/>
-    <hyperlink display="http://testingedu.com.cn:8000/Home/Index/index.html" r:id="rId2" ref="E24" tooltip="http://testingedu.com.cn:8000/Home/Index/index.html"/>
-    <hyperlink display="17872149@qq.com" r:id="rId3" ref="E23" tooltip="mailto:17872149@qq.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://testingedu.com.cn:8000/Admin/Admin/login"/>
+    <hyperlink ref="E24" r:id="rId2" display="http://testingedu.com.cn:8000/Home/Index/index.html" tooltip="http://testingedu.com.cn:8000/Home/Index/index.html"/>
+    <hyperlink ref="E23" r:id="rId3" display="17872149@qq.com" tooltip="mailto:17872149@qq.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1898,8 +1898,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/cases/WebCases2.xlsx
+++ b/cases/WebCases2.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9060" windowHeight="3045"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:K29"/>
+  <oleSize ref="A22:K50"/>
 </workbook>
 </file>
 
@@ -204,7 +204,7 @@
     <t>搜索商品</t>
   </si>
   <si>
-    <t>//input[@id='q']</t>
+    <t>//input[@id='qq']</t>
   </si>
   <si>
     <t>//button[@type='submit']</t>
@@ -241,6 +241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -250,29 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,38 +279,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +321,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,13 +358,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,6 +376,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,91 +394,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,85 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +646,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,15 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -713,16 +698,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/cases/WebCases2.xlsx
+++ b/cases/WebCases2.xlsx
@@ -204,7 +204,7 @@
     <t>搜索商品</t>
   </si>
   <si>
-    <t>//input[@id='qq']</t>
+    <t>//input[@id='q']</t>
   </si>
   <si>
     <t>//button[@type='submit']</t>
@@ -227,30 +227,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,9 +250,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +304,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,70 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,14 +384,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,37 +394,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,139 +514,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +616,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -627,6 +666,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,67 +708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
